--- a/pred_ohlcv/54_21/2019-10-29 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ETC ohlcv.xlsx
@@ -7126,7 +7126,7 @@
         <v>-12560.84000420508</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-14723.24810420507</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-12448.88490420508</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-11470.25060420508</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-10423.22010420507</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-9992.982250227316</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-9534.746450227316</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-9527.917850227315</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-10606.08475022732</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15666.50045022732</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-14424.96755022731</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12930.63691982935</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-10398.13241982935</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2356.826580170652</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3396.827380170652</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3346.344480170652</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5742.268880170652</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>3417.883180170652</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>6127.892180170652</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>3612.942580170652</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3694.618680170652</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ETC ohlcv.xlsx
@@ -7126,7 +7126,7 @@
         <v>-12560.84000420508</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-12570.56040420508</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-12338.30720420508</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-12322.59660420507</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-14723.24810420507</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-12448.88490420508</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-11470.25060420508</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-10423.22010420507</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-9992.982250227316</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-9534.746450227316</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-9527.917850227315</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-10606.08475022732</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-16032.98435022731</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15666.50045022732</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-14424.96755022731</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12930.63691982935</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-10398.13241982935</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3786.636880170652</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2356.826580170652</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3289.417580170652</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3396.827380170652</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3346.344480170652</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5947.038480170651</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5742.268880170652</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5226.517780170652</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>5214.207880170652</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>3417.883180170652</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>6127.892180170652</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>3612.942580170652</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>3694.618680170652</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
